--- a/Employment Status.xlsx
+++ b/Employment Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsh04\Desktop\2024-Fall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2002D7-39A6-48FA-81ED-B070E84CA313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75329044-825F-4AF8-8DA6-D940A05890AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{E0539C40-DB60-4822-ABC1-759342AC433F}"/>
+    <workbookView xWindow="4245" yWindow="4245" windowWidth="21600" windowHeight="11835" xr2:uid="{E0539C40-DB60-4822-ABC1-759342AC433F}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jan Full Time" sheetId="2" r:id="rId1"/>
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A248182B-F338-4D88-B5BE-882C43BCF2CB}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,9 +2088,10 @@
     <hyperlink ref="D2" r:id="rId12" xr:uid="{0715E8F6-27C8-452E-B9D3-DFFB97A15B4A}"/>
     <hyperlink ref="D62" r:id="rId13" xr:uid="{CC2007A5-669B-44E4-9DEB-13A27D82549D}"/>
     <hyperlink ref="D24" r:id="rId14" xr:uid="{8048A811-80D7-45A9-BE1A-7222C7A20AA4}"/>
+    <hyperlink ref="D8" r:id="rId15" xr:uid="{7E714A47-C303-47E0-90F1-54A302902882}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/Employment Status.xlsx
+++ b/Employment Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsh04\Desktop\2024-Fall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75329044-825F-4AF8-8DA6-D940A05890AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD617E4-F2D5-46A0-9BA5-CCCFB46C405D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4245" windowWidth="21600" windowHeight="11835" xr2:uid="{E0539C40-DB60-4822-ABC1-759342AC433F}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{E0539C40-DB60-4822-ABC1-759342AC433F}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jan Full Time" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="44">
+  <futureMetadata name="XLRICHVALUE" count="50">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -350,8 +350,50 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="44"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="45"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="46"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="47"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="48"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="49"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="44">
+  <valueMetadata count="50">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -483,13 +525,31 @@
     </bk>
     <bk>
       <rc t="1" v="43"/>
+    </bk>
+    <bk>
+      <rc t="1" v="44"/>
+    </bk>
+    <bk>
+      <rc t="1" v="45"/>
+    </bk>
+    <bk>
+      <rc t="1" v="46"/>
+    </bk>
+    <bk>
+      <rc t="1" v="47"/>
+    </bk>
+    <bk>
+      <rc t="1" v="48"/>
+    </bk>
+    <bk>
+      <rc t="1" v="49"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="113">
   <si>
     <t>Draper</t>
   </si>
@@ -813,6 +873,21 @@
   </si>
   <si>
     <t>https://blueorigin.wd5.myworkdayjobs.com/en-US/BlueOrigin/job/XMLNAME--Early-Career--New-Graduate-Rotation-Program--Spring---Summer---Fall-2025-Start-Date----Guidance--Navigation---Control_R46958</t>
+  </si>
+  <si>
+    <t>Anduril</t>
+  </si>
+  <si>
+    <t>Guidance, Navigation &amp; Control (GNC) - Subsystem Engineer</t>
+  </si>
+  <si>
+    <t>https://job-boards.greenhouse.io/andurilindustries/jobs/4378023007?gh_jid=4378023007</t>
+  </si>
+  <si>
+    <t>Stoke</t>
+  </si>
+  <si>
+    <t>https://www.stokespace.com/careers/current-openings/?gh_jid=5226967004</t>
   </si>
 </sst>
 </file>
@@ -948,7 +1023,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="44">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="50">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -1123,6 +1198,30 @@
   </rv>
   <rv s="0">
     <v>43</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>44</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>45</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>46</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>47</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>48</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>49</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -1183,6 +1282,12 @@
   <rel r:id="rId42"/>
   <rel r:id="rId43"/>
   <rel r:id="rId44"/>
+  <rel r:id="rId45"/>
+  <rel r:id="rId46"/>
+  <rel r:id="rId47"/>
+  <rel r:id="rId48"/>
+  <rel r:id="rId49"/>
+  <rel r:id="rId50"/>
 </richValueRels>
 </file>
 
@@ -1483,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A248182B-F338-4D88-B5BE-882C43BCF2CB}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,6 +2174,52 @@
         <v>#VALUE!</v>
       </c>
       <c r="F62" t="e" vm="44">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="2">
+        <v>45550</v>
+      </c>
+      <c r="D65" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" t="e" vm="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F65" t="e" vm="46">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G65" t="e" vm="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H65" t="e" vm="48">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45550</v>
+      </c>
+      <c r="D67" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" t="e" vm="49">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F67" t="e" vm="50">
         <v>#VALUE!</v>
       </c>
     </row>
